--- a/natmiOut/YoungD0/LR-pairs_lrc2p/App-Cd74.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/App-Cd74.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>99.27646669230489</v>
+        <v>104.794801</v>
       </c>
       <c r="H2">
-        <v>99.27646669230489</v>
+        <v>314.384403</v>
       </c>
       <c r="I2">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="J2">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.5444616537335</v>
+        <v>91.65675166666666</v>
       </c>
       <c r="N2">
-        <v>15.5444616537335</v>
+        <v>274.970255</v>
       </c>
       <c r="O2">
-        <v>0.8765353682946685</v>
+        <v>0.9732857812565366</v>
       </c>
       <c r="P2">
-        <v>0.8765353682946685</v>
+        <v>0.9732857812565366</v>
       </c>
       <c r="Q2">
-        <v>1543.199229616684</v>
+        <v>9605.151051214752</v>
       </c>
       <c r="R2">
-        <v>1543.199229616684</v>
+        <v>86446.35946093277</v>
       </c>
       <c r="S2">
-        <v>0.3298177783703787</v>
+        <v>0.3768972484582671</v>
       </c>
       <c r="T2">
-        <v>0.3298177783703787</v>
+        <v>0.3768972484582671</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>99.27646669230489</v>
+        <v>104.794801</v>
       </c>
       <c r="H3">
-        <v>99.27646669230489</v>
+        <v>314.384403</v>
       </c>
       <c r="I3">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="J3">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.474216970419344</v>
+        <v>0.6377586666666667</v>
       </c>
       <c r="N3">
-        <v>0.474216970419344</v>
+        <v>1.913276</v>
       </c>
       <c r="O3">
-        <v>0.0267405816989658</v>
+        <v>0.006772239151537979</v>
       </c>
       <c r="P3">
-        <v>0.0267405816989658</v>
+        <v>0.006772239151537978</v>
       </c>
       <c r="Q3">
-        <v>47.07858526876174</v>
+        <v>66.83379255935867</v>
       </c>
       <c r="R3">
-        <v>47.07858526876174</v>
+        <v>601.5041330342281</v>
       </c>
       <c r="S3">
-        <v>0.01006179507102286</v>
+        <v>0.002622496240334212</v>
       </c>
       <c r="T3">
-        <v>0.01006179507102286</v>
+        <v>0.002622496240334212</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>99.27646669230489</v>
+        <v>104.794801</v>
       </c>
       <c r="H4">
-        <v>99.27646669230489</v>
+        <v>314.384403</v>
       </c>
       <c r="I4">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="J4">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.71530247460854</v>
+        <v>1.877986</v>
       </c>
       <c r="N4">
-        <v>1.71530247460854</v>
+        <v>5.633958</v>
       </c>
       <c r="O4">
-        <v>0.09672405000636569</v>
+        <v>0.01994197959192537</v>
       </c>
       <c r="P4">
-        <v>0.09672405000636569</v>
+        <v>0.01994197959192537</v>
       </c>
       <c r="Q4">
-        <v>170.2891689877029</v>
+        <v>196.803169150786</v>
       </c>
       <c r="R4">
-        <v>170.2891689877029</v>
+        <v>1771.228522357074</v>
       </c>
       <c r="S4">
-        <v>0.03639477931181501</v>
+        <v>0.007722374436934794</v>
       </c>
       <c r="T4">
-        <v>0.03639477931181501</v>
+        <v>0.007722374436934794</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>136.320576629711</v>
+        <v>136.674446</v>
       </c>
       <c r="H5">
-        <v>136.320576629711</v>
+        <v>410.023338</v>
       </c>
       <c r="I5">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="J5">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.5444616537335</v>
+        <v>91.65675166666666</v>
       </c>
       <c r="N5">
-        <v>15.5444616537335</v>
+        <v>274.970255</v>
       </c>
       <c r="O5">
-        <v>0.8765353682946685</v>
+        <v>0.9732857812565366</v>
       </c>
       <c r="P5">
-        <v>0.8765353682946685</v>
+        <v>0.9732857812565366</v>
       </c>
       <c r="Q5">
-        <v>2119.029976035382</v>
+        <v>12527.13575620124</v>
       </c>
       <c r="R5">
-        <v>2119.029976035382</v>
+        <v>112744.2218058112</v>
       </c>
       <c r="S5">
-        <v>0.4528862803863795</v>
+        <v>0.4915532272632304</v>
       </c>
       <c r="T5">
-        <v>0.4528862803863795</v>
+        <v>0.4915532272632304</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>136.320576629711</v>
+        <v>136.674446</v>
       </c>
       <c r="H6">
-        <v>136.320576629711</v>
+        <v>410.023338</v>
       </c>
       <c r="I6">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="J6">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.474216970419344</v>
+        <v>0.6377586666666667</v>
       </c>
       <c r="N6">
-        <v>0.474216970419344</v>
+        <v>1.913276</v>
       </c>
       <c r="O6">
-        <v>0.0267405816989658</v>
+        <v>0.006772239151537979</v>
       </c>
       <c r="P6">
-        <v>0.0267405816989658</v>
+        <v>0.006772239151537978</v>
       </c>
       <c r="Q6">
-        <v>64.64553085515959</v>
+        <v>87.16531244836533</v>
       </c>
       <c r="R6">
-        <v>64.64553085515959</v>
+        <v>784.4878120352879</v>
       </c>
       <c r="S6">
-        <v>0.01381626231988108</v>
+        <v>0.003420286286766853</v>
       </c>
       <c r="T6">
-        <v>0.01381626231988108</v>
+        <v>0.003420286286766852</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>136.320576629711</v>
+        <v>136.674446</v>
       </c>
       <c r="H7">
-        <v>136.320576629711</v>
+        <v>410.023338</v>
       </c>
       <c r="I7">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="J7">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.71530247460854</v>
+        <v>1.877986</v>
       </c>
       <c r="N7">
-        <v>1.71530247460854</v>
+        <v>5.633958</v>
       </c>
       <c r="O7">
-        <v>0.09672405000636569</v>
+        <v>0.01994197959192537</v>
       </c>
       <c r="P7">
-        <v>0.09672405000636569</v>
+        <v>0.01994197959192537</v>
       </c>
       <c r="Q7">
-        <v>233.8310224330064</v>
+        <v>256.672696145756</v>
       </c>
       <c r="R7">
-        <v>233.8310224330064</v>
+        <v>2310.054265311804</v>
       </c>
       <c r="S7">
-        <v>0.04997515994878032</v>
+        <v>0.01007159933413705</v>
       </c>
       <c r="T7">
-        <v>0.04997515994878032</v>
+        <v>0.01007159933413705</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.2435983956416</v>
+        <v>29.14904533333333</v>
       </c>
       <c r="H8">
-        <v>28.2435983956416</v>
+        <v>87.447136</v>
       </c>
       <c r="I8">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="J8">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.5444616537335</v>
+        <v>91.65675166666666</v>
       </c>
       <c r="N8">
-        <v>15.5444616537335</v>
+        <v>274.970255</v>
       </c>
       <c r="O8">
-        <v>0.8765353682946685</v>
+        <v>0.9732857812565366</v>
       </c>
       <c r="P8">
-        <v>0.8765353682946685</v>
+        <v>0.9732857812565366</v>
       </c>
       <c r="Q8">
-        <v>439.0315322244999</v>
+        <v>2671.706809437742</v>
       </c>
       <c r="R8">
-        <v>439.0315322244999</v>
+        <v>24045.36128493968</v>
       </c>
       <c r="S8">
-        <v>0.09383130953791033</v>
+        <v>0.1048353055350391</v>
       </c>
       <c r="T8">
-        <v>0.09383130953791033</v>
+        <v>0.1048353055350391</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.2435983956416</v>
+        <v>29.14904533333333</v>
       </c>
       <c r="H9">
-        <v>28.2435983956416</v>
+        <v>87.447136</v>
       </c>
       <c r="I9">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="J9">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.474216970419344</v>
+        <v>0.6377586666666667</v>
       </c>
       <c r="N9">
-        <v>0.474216970419344</v>
+        <v>1.913276</v>
       </c>
       <c r="O9">
-        <v>0.0267405816989658</v>
+        <v>0.006772239151537979</v>
       </c>
       <c r="P9">
-        <v>0.0267405816989658</v>
+        <v>0.006772239151537978</v>
       </c>
       <c r="Q9">
-        <v>13.39359366492181</v>
+        <v>18.59005628639289</v>
       </c>
       <c r="R9">
-        <v>13.39359366492181</v>
+        <v>167.310506577536</v>
       </c>
       <c r="S9">
-        <v>0.002862524308061856</v>
+        <v>0.0007294566244369142</v>
       </c>
       <c r="T9">
-        <v>0.002862524308061856</v>
+        <v>0.0007294566244369141</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.2435983956416</v>
+        <v>29.14904533333333</v>
       </c>
       <c r="H10">
-        <v>28.2435983956416</v>
+        <v>87.447136</v>
       </c>
       <c r="I10">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="J10">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.71530247460854</v>
+        <v>1.877986</v>
       </c>
       <c r="N10">
-        <v>1.71530247460854</v>
+        <v>5.633958</v>
       </c>
       <c r="O10">
-        <v>0.09672405000636569</v>
+        <v>0.01994197959192537</v>
       </c>
       <c r="P10">
-        <v>0.09672405000636569</v>
+        <v>0.01994197959192537</v>
       </c>
       <c r="Q10">
-        <v>48.44631421989383</v>
+        <v>54.74149904936533</v>
       </c>
       <c r="R10">
-        <v>48.44631421989383</v>
+        <v>492.673491444288</v>
       </c>
       <c r="S10">
-        <v>0.01035411074577037</v>
+        <v>0.002148005820853525</v>
       </c>
       <c r="T10">
-        <v>0.01035411074577037</v>
+        <v>0.002148005820853525</v>
       </c>
     </row>
   </sheetData>
